--- a/pidis/expdata/10007.xlsx
+++ b/pidis/expdata/10007.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC99C9-83F7-8E46-AB01-CBA0A0244067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27440" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,18 +63,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Apar(stat)_u</t>
-  </si>
-  <si>
-    <t>Apar(syst)</t>
-  </si>
-  <si>
-    <t>syst_c</t>
-  </si>
-  <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -76,12 +74,24 @@
   <si>
     <t>HERMES</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +104,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,10 +144,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -421,9 +440,12 @@
     <col min="6" max="7" width="8.83203125" style="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,22 +471,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>27.6</v>
       </c>
@@ -480,11 +502,11 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="4">
         <v>2.0500000000000001E-2</v>
@@ -495,19 +517,19 @@
       <c r="J2" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f t="shared" ref="K2:K46" si="0">H2*5.2/100</f>
         <v>1.0660000000000001E-3</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L46" si="1">MAX(J2^2-K2^2,0)</f>
-        <v>5.6236439999999993E-6</v>
+        <f>MAX(J2^2-K2^2,0)^0.5</f>
+        <v>2.3714223579953024E-3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>27.6</v>
       </c>
@@ -523,11 +545,11 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="4">
         <v>1.38E-2</v>
@@ -538,19 +560,19 @@
       <c r="J3" s="4">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
         <v>7.176000000000001E-4</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3250502400000002E-6</v>
+        <f t="shared" ref="L3:L46" si="1">MAX(J3^2-K3^2,0)^0.5</f>
+        <v>2.0796755131510299E-3</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>27.6</v>
       </c>
@@ -566,11 +588,11 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="4">
         <v>2.9399999999999999E-2</v>
@@ -581,19 +603,19 @@
       <c r="J4" s="4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>1.5287999999999999E-3</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="1"/>
-        <v>4.952770560000001E-6</v>
+        <v>2.2254820960861494E-3</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>27.6</v>
       </c>
@@ -609,11 +631,11 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <v>3.4700000000000002E-2</v>
@@ -624,19 +646,19 @@
       <c r="J5" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>1.8044000000000003E-3</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>6.3541406399999991E-6</v>
+        <v>2.5207420812133874E-3</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>27.6</v>
       </c>
@@ -652,11 +674,11 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="4">
         <v>4.2799999999999998E-2</v>
@@ -667,19 +689,19 @@
       <c r="J6" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>2.2255999999999999E-3</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>5.2867046400000005E-6</v>
+        <v>2.2992835057904452E-3</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>27.6</v>
       </c>
@@ -695,11 +717,11 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="4">
         <v>9.3100000000000002E-2</v>
@@ -710,19 +732,19 @@
       <c r="J7" s="4">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>4.8412000000000004E-3</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>3.1322782560000006E-5</v>
+        <v>5.5966760277864937E-3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>27.6</v>
       </c>
@@ -738,11 +760,11 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="4">
         <v>5.6099999999999997E-2</v>
@@ -753,19 +775,19 @@
       <c r="J8" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>2.9172E-3</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>1.0999441599999987E-6</v>
+        <v>1.0487822271568101E-3</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>27.6</v>
       </c>
@@ -781,11 +803,11 @@
       <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="4">
         <v>7.2400000000000006E-2</v>
@@ -796,19 +818,19 @@
       <c r="J9" s="4">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>3.7648000000000004E-3</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>1.8316280960000002E-5</v>
+        <v>4.2797524414386404E-3</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>27.6</v>
       </c>
@@ -824,11 +846,11 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="4">
         <v>5.2200000000000003E-2</v>
@@ -839,19 +861,19 @@
       <c r="J10" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
         <v>2.7144000000000001E-3</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>2.2420326399999988E-6</v>
+        <v>1.4973418580938687E-3</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>27.6</v>
       </c>
@@ -867,11 +889,11 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="4">
         <v>5.9200000000000003E-2</v>
@@ -882,19 +904,19 @@
       <c r="J11" s="4">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>3.0784000000000002E-3</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>1.3563453439999995E-5</v>
+        <v>3.6828594108382681E-3</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>27.6</v>
       </c>
@@ -910,11 +932,11 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="4">
         <v>2.9100000000000001E-2</v>
@@ -925,19 +947,19 @@
       <c r="J12" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>1.5132000000000001E-3</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>6.1202257599999989E-6</v>
+        <v>2.473909003985393E-3</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>27.6</v>
       </c>
@@ -953,11 +975,11 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H13" s="4">
         <v>6.13E-2</v>
@@ -968,19 +990,19 @@
       <c r="J13" s="4">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>3.1876000000000001E-3</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>1.5849206240000003E-5</v>
+        <v>3.9811061578410595E-3</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>27.6</v>
       </c>
@@ -996,11 +1018,11 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="4">
         <v>4.6600000000000003E-2</v>
@@ -1011,19 +1033,19 @@
       <c r="J14" s="4">
         <v>2.8E-3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f t="shared" si="0"/>
         <v>2.4231999999999999E-3</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>1.9681017599999995E-6</v>
+        <v>1.4028905017855098E-3</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>27.6</v>
       </c>
@@ -1039,11 +1061,11 @@
       <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="4">
         <v>5.4899999999999997E-2</v>
@@ -1054,19 +1076,19 @@
       <c r="J15" s="4">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <f t="shared" si="0"/>
         <v>2.8548000000000002E-3</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>1.121011696E-5</v>
+        <v>3.3481512749575699E-3</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>27.6</v>
       </c>
@@ -1082,11 +1104,11 @@
       <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H16" s="4">
         <v>7.2400000000000006E-2</v>
@@ -1097,19 +1119,19 @@
       <c r="J16" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>3.7648000000000004E-3</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>3.3436280959999999E-5</v>
+        <v>5.7824113447592085E-3</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>27.6</v>
       </c>
@@ -1125,11 +1147,11 @@
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="4">
         <v>3.8199999999999998E-2</v>
@@ -1140,19 +1162,19 @@
       <c r="J17" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
         <v>1.9863999999999997E-3</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>2.8142150400000004E-6</v>
+        <v>1.6775622313345041E-3</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>27.6</v>
       </c>
@@ -1168,11 +1190,11 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="4">
         <v>8.7599999999999997E-2</v>
@@ -1183,19 +1205,19 @@
       <c r="J18" s="4">
         <v>5.3E-3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
         <v>4.5551999999999997E-3</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>7.3401529600000035E-6</v>
+        <v>2.7092716659648593E-3</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>27.6</v>
       </c>
@@ -1211,11 +1233,11 @@
       <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>14</v>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H19" s="4">
         <v>0.15210000000000001</v>
@@ -1226,19 +1248,19 @@
       <c r="J19" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
         <v>7.9091999999999999E-3</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>4.5604555359999991E-5</v>
+        <v>6.7531144933282447E-3</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>27.6</v>
       </c>
@@ -1254,11 +1276,11 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>14</v>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="4">
         <v>5.1799999999999999E-2</v>
@@ -1269,19 +1291,19 @@
       <c r="J20" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f t="shared" si="0"/>
         <v>2.6936E-3</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>3.6345190399999993E-6</v>
+        <v>1.9064414598932743E-3</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>27.6</v>
       </c>
@@ -1297,11 +1319,11 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H21" s="4">
         <v>6.3100000000000003E-2</v>
@@ -1312,19 +1334,19 @@
       <c r="J21" s="4">
         <v>4.3E-3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <f t="shared" si="0"/>
         <v>3.2812000000000002E-3</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="1"/>
-        <v>7.7237265600000001E-6</v>
+        <v>2.7791593261272374E-3</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>27.6</v>
       </c>
@@ -1340,11 +1362,11 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="4">
         <v>0.14810000000000001</v>
@@ -1355,19 +1377,19 @@
       <c r="J22" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>7.7012000000000001E-3</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="1"/>
-        <v>3.6731518559999992E-5</v>
+        <v>6.0606533113188379E-3</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>27.6</v>
       </c>
@@ -1383,11 +1405,11 @@
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>14</v>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H23" s="4">
         <v>4.1399999999999999E-2</v>
@@ -1398,19 +1420,19 @@
       <c r="J23" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>2.1527999999999999E-3</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="1"/>
-        <v>2.1254521600000003E-6</v>
+        <v>1.4578930550626821E-3</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>27.6</v>
       </c>
@@ -1426,11 +1448,11 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>14</v>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H24" s="4">
         <v>8.8800000000000004E-2</v>
@@ -1441,19 +1463,19 @@
       <c r="J24" s="4">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
         <v>4.6176000000000004E-3</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="1"/>
-        <v>8.9277702399999932E-6</v>
+        <v>2.9879374558380556E-3</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>27.6</v>
       </c>
@@ -1469,11 +1491,11 @@
       <c r="E25" s="4">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H25" s="4">
         <v>0.17169999999999999</v>
@@ -1484,19 +1506,19 @@
       <c r="J25" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
         <v>8.9283999999999995E-3</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="1"/>
-        <v>3.6923673440000012E-5</v>
+        <v>6.0764852867426587E-3</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>27.6</v>
       </c>
@@ -1512,11 +1534,11 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>14</v>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="4">
         <v>5.0500000000000003E-2</v>
@@ -1527,19 +1549,19 @@
       <c r="J26" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>2.6259999999999999E-3</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="1"/>
-        <v>1.5141239999999994E-6</v>
+        <v>1.2304974603793376E-3</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>27.6</v>
       </c>
@@ -1555,11 +1577,11 @@
       <c r="E27" s="4">
         <v>2</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>14</v>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H27" s="4">
         <v>9.9900000000000003E-2</v>
@@ -1570,19 +1592,19 @@
       <c r="J27" s="4">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
         <v>5.1948000000000003E-3</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="1"/>
-        <v>1.0224052960000001E-5</v>
+        <v>3.1975073041355202E-3</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27.6</v>
       </c>
@@ -1598,11 +1620,11 @@
       <c r="E28" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H28" s="4">
         <v>0.18959999999999999</v>
@@ -1613,19 +1635,19 @@
       <c r="J28" s="4">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>9.8592000000000003E-3</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="1"/>
-        <v>3.7356175359999985E-5</v>
+        <v>6.1119698428575373E-3</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>27.6</v>
       </c>
@@ -1641,11 +1663,11 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>14</v>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="4">
         <v>4.3299999999999998E-2</v>
@@ -1656,19 +1678,19 @@
       <c r="J29" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
         <v>2.2515999999999999E-3</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="1"/>
-        <v>5.82029744E-6</v>
+        <v>2.4125292619987014E-3</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>27.6</v>
       </c>
@@ -1684,11 +1706,11 @@
       <c r="E30" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>14</v>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="4">
         <v>8.6699999999999999E-2</v>
@@ -1699,19 +1721,19 @@
       <c r="J30" s="4">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
         <v>4.5084000000000001E-3</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="1"/>
-        <v>1.1034329439999999E-5</v>
+        <v>3.3217961165610387E-3</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>27.6</v>
       </c>
@@ -1727,11 +1749,11 @@
       <c r="E31" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>14</v>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="4">
         <v>0.1875</v>
@@ -1742,19 +1764,19 @@
       <c r="J31" s="4">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <f t="shared" si="0"/>
         <v>9.7500000000000017E-3</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="1"/>
-        <v>3.2627499999999965E-5</v>
+        <v>5.7120486692604404E-3</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>27.6</v>
       </c>
@@ -1770,11 +1792,11 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>14</v>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H32" s="4">
         <v>6.7599999999999993E-2</v>
@@ -1785,19 +1807,19 @@
       <c r="J32" s="4">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>3.5152E-3</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="1"/>
-        <v>2.853368959999998E-6</v>
+        <v>1.6891918067525658E-3</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>27.6</v>
       </c>
@@ -1813,11 +1835,11 @@
       <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>14</v>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H33" s="4">
         <v>0.1047</v>
@@ -1828,19 +1850,19 @@
       <c r="J33" s="4">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
         <v>5.4444000000000003E-3</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>1.1318508639999998E-5</v>
+        <v>3.3642991305768274E-3</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>27.6</v>
       </c>
@@ -1856,11 +1878,11 @@
       <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>14</v>
+      <c r="F34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H34" s="4">
         <v>0.2142</v>
@@ -1871,19 +1893,19 @@
       <c r="J34" s="4">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>1.11384E-2</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="1"/>
-        <v>3.7226045440000001E-5</v>
+        <v>6.1013150582476892E-3</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>27.6</v>
       </c>
@@ -1899,11 +1921,11 @@
       <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>14</v>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H35" s="4">
         <v>6.4600000000000005E-2</v>
@@ -1914,19 +1936,19 @@
       <c r="J35" s="4">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <f t="shared" si="0"/>
         <v>3.3592000000000006E-3</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="1"/>
-        <v>1.8965775359999993E-5</v>
+        <v>4.354971338596845E-3</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>27.6</v>
       </c>
@@ -1942,11 +1964,11 @@
       <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>14</v>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H36" s="4">
         <v>0.1268</v>
@@ -1957,19 +1979,19 @@
       <c r="J36" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <f t="shared" si="0"/>
         <v>6.5936000000000007E-3</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="1"/>
-        <v>2.0524439039999989E-5</v>
+        <v>4.5303906056762908E-3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>27.6</v>
       </c>
@@ -1985,11 +2007,11 @@
       <c r="E37" s="4">
         <v>3</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>14</v>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H37" s="4">
         <v>0.2581</v>
@@ -2000,19 +2022,19 @@
       <c r="J37" s="4">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <f t="shared" si="0"/>
         <v>1.3421199999999999E-2</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="1"/>
-        <v>4.7881390560000029E-5</v>
+        <v>6.9196380367762033E-3</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>27.6</v>
       </c>
@@ -2028,11 +2050,11 @@
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>14</v>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H38" s="4">
         <v>6.7500000000000004E-2</v>
@@ -2043,19 +2065,19 @@
       <c r="J38" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <f t="shared" si="0"/>
         <v>3.5100000000000005E-3</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
-        <v>2.3679899999999997E-5</v>
+        <v>4.8661997492910215E-3</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>27.6</v>
       </c>
@@ -2071,11 +2093,11 @@
       <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>14</v>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H39" s="4">
         <v>0.1719</v>
@@ -2086,19 +2108,19 @@
       <c r="J39" s="4">
         <v>1.03E-2</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <f t="shared" si="0"/>
         <v>8.9388000000000002E-3</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="1"/>
-        <v>2.6187854560000005E-5</v>
+        <v>5.1174070152763896E-3</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>27.6</v>
       </c>
@@ -2114,11 +2136,11 @@
       <c r="E40" s="4">
         <v>3</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>14</v>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H40" s="4">
         <v>0.28699999999999998</v>
@@ -2129,19 +2151,19 @@
       <c r="J40" s="4">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <f t="shared" si="0"/>
         <v>1.4924E-2</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="1"/>
-        <v>4.9524224000000035E-5</v>
+        <v>7.0373449538870866E-3</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>27.6</v>
       </c>
@@ -2157,11 +2179,11 @@
       <c r="E41" s="4">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>14</v>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H41" s="4">
         <v>9.6199999999999994E-2</v>
@@ -2172,19 +2194,19 @@
       <c r="J41" s="4">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <f t="shared" si="0"/>
         <v>5.0024000000000006E-3</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="1"/>
-        <v>4.7225994240000004E-5</v>
+        <v>6.8721171584890783E-3</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>27.6</v>
       </c>
@@ -2200,11 +2222,11 @@
       <c r="E42" s="4">
         <v>2</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>14</v>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="4">
         <v>0.11260000000000001</v>
@@ -2215,19 +2237,19 @@
       <c r="J42" s="4">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <f t="shared" si="0"/>
         <v>5.8552000000000005E-3</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="1"/>
-        <v>2.5006632959999996E-5</v>
+        <v>5.0006632520096768E-3</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27.6</v>
       </c>
@@ -2243,11 +2265,11 @@
       <c r="E43" s="4">
         <v>3</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>14</v>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H43" s="4">
         <v>0.31509999999999999</v>
@@ -2258,19 +2280,19 @@
       <c r="J43" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <f t="shared" si="0"/>
         <v>1.6385199999999999E-2</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="1"/>
-        <v>6.2765220960000025E-5</v>
+        <v>7.9224504391002676E-3</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>27.6</v>
       </c>
@@ -2286,11 +2308,11 @@
       <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>14</v>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H44" s="4">
         <v>0.13070000000000001</v>
@@ -2301,19 +2323,19 @@
       <c r="J44" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <f t="shared" si="0"/>
         <v>6.7964000000000011E-3</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="1"/>
-        <v>7.0448947039999997E-5</v>
+        <v>8.3933871017605275E-3</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>27.6</v>
       </c>
@@ -2329,11 +2351,11 @@
       <c r="E45" s="4">
         <v>2</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>14</v>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H45" s="4">
         <v>0.30280000000000001</v>
@@ -2344,19 +2366,19 @@
       <c r="J45" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <f t="shared" si="0"/>
         <v>1.5745600000000002E-2</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="1"/>
-        <v>5.8326080639999978E-5</v>
+        <v>7.6371513432692941E-3</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>27.6</v>
       </c>
@@ -2372,11 +2394,11 @@
       <c r="E46" s="4">
         <v>3</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>14</v>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H46" s="4">
         <v>0.52739999999999998</v>
@@ -2387,16 +2409,16 @@
       <c r="J46" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <f t="shared" si="0"/>
         <v>2.7424799999999999E-2</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="1"/>
-        <v>1.3592034496E-4</v>
+        <v>1.1658488107812264E-2</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
